--- a/Assessment.xlsx
+++ b/Assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek.kumar.k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3EA27A-E42B-40DB-9119-734D2DB3C081}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023BB57F-7318-464D-805E-BC63F5E1D8E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{41FFF1CA-D7C8-4ECB-975C-A515BCB9B2C5}"/>
   </bookViews>
@@ -400,6 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -427,7 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,13 +834,13 @@
       <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="L6" s="2" t="s">
         <v>3</v>
       </c>
@@ -864,11 +864,11 @@
       <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
       <c r="L7" s="1">
         <v>1</v>
       </c>
@@ -892,11 +892,11 @@
       <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
       <c r="L8" s="1">
         <v>2</v>
       </c>
@@ -908,11 +908,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
       <c r="L9" s="1">
         <v>4</v>
       </c>
@@ -927,11 +927,11 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -969,20 +969,20 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
       <c r="L16" s="2" t="s">
         <v>3</v>
       </c>
@@ -994,11 +994,11 @@
       </c>
     </row>
     <row r="17" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
       <c r="L17" s="1">
         <v>1</v>
       </c>
@@ -1010,11 +1010,11 @@
       </c>
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
       <c r="L18" s="1">
         <v>2</v>
       </c>
@@ -1026,11 +1026,11 @@
       </c>
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
       <c r="L19" s="1">
         <v>3</v>
       </c>
@@ -1042,18 +1042,18 @@
       </c>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1140,16 +1140,16 @@
       <c r="D5" s="1">
         <v>2000</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="3">
         <v>8</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="3">
         <v>4</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="3">
         <v>2700</v>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="D6" s="1">
         <v>3000</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
       <c r="L6" s="1">
         <v>4</v>
       </c>
@@ -1199,11 +1199,11 @@
       <c r="D7" s="1">
         <v>5000</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
@@ -1230,11 +1230,11 @@
       <c r="D8" s="1">
         <v>6000</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1249,42 +1249,42 @@
       <c r="D9" s="1">
         <v>2350</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>2700</v>
       </c>
     </row>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
       <c r="L17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1313,11 +1313,11 @@
       </c>
     </row>
     <row r="18" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
       <c r="L18" s="1">
         <v>1</v>
       </c>
@@ -1329,11 +1329,11 @@
       </c>
     </row>
     <row r="19" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
       <c r="L19" s="1">
         <v>2</v>
       </c>
@@ -1345,11 +1345,11 @@
       </c>
     </row>
     <row r="20" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
       <c r="L20" s="1">
         <v>3</v>
       </c>
@@ -1361,11 +1361,11 @@
       </c>
     </row>
     <row r="21" spans="6:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
       <c r="L21" s="1">
         <v>4</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="L22" s="1">
         <v>8</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="1">
@@ -1449,13 +1449,13 @@
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
       <c r="J5" s="1">
         <v>1</v>
       </c>
@@ -1470,11 +1470,11 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
       <c r="J6" s="1">
         <v>2</v>
       </c>
@@ -1489,11 +1489,11 @@
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -1508,11 +1508,11 @@
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
       <c r="J8" s="1">
         <v>4</v>
       </c>
@@ -1527,11 +1527,11 @@
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="J9" s="1">
         <v>5</v>
       </c>
@@ -1554,13 +1554,13 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
       <c r="J15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1569,11 +1569,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
       <c r="J16" s="1">
         <v>1</v>
       </c>
@@ -1582,11 +1582,11 @@
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
       <c r="J17" s="1">
         <v>2</v>
       </c>
@@ -1595,11 +1595,11 @@
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="6"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="J18" s="1">
         <v>3</v>
       </c>
@@ -1608,11 +1608,11 @@
       </c>
     </row>
     <row r="19" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
       <c r="J19" s="1">
         <v>4</v>
       </c>
@@ -1717,13 +1717,13 @@
       <c r="D5" s="1">
         <v>2000</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="L5" s="1">
         <v>5</v>
       </c>
@@ -1747,11 +1747,11 @@
       <c r="D6" s="1">
         <v>3000</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1766,11 +1766,11 @@
       <c r="D7" s="1">
         <v>5000</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1785,11 +1785,11 @@
       <c r="D8" s="1">
         <v>6000</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1804,37 +1804,37 @@
       <c r="D9" s="1">
         <v>2350</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="3">
         <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>2700</v>
       </c>
     </row>
@@ -1845,13 +1845,13 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
       <c r="L15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1866,11 +1866,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
       <c r="L16" s="1">
         <v>1</v>
       </c>
@@ -1885,11 +1885,11 @@
       </c>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
       <c r="L17" s="1">
         <v>5</v>
       </c>
@@ -1904,11 +1904,11 @@
       </c>
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
       <c r="L18" s="1">
         <v>4</v>
       </c>
@@ -1923,11 +1923,11 @@
       </c>
     </row>
     <row r="19" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1944,7 +1944,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,24 +2013,24 @@
       <c r="D4" s="1">
         <v>3500</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O4" s="1">
-        <v>2000</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -2046,11 +2046,11 @@
       <c r="D5" s="1">
         <v>4800</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
       <c r="L5" s="1">
         <v>2</v>
       </c>
@@ -2077,11 +2077,11 @@
       <c r="D6" s="1">
         <v>5700</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2096,11 +2096,11 @@
       <c r="D7" s="1">
         <v>3000</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -2115,23 +2115,23 @@
       <c r="D8" s="1">
         <v>5800</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="3">
         <v>3200</v>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32C43C07-F2D2-4348-B3AB-E4CF32060D31}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -2232,13 +2232,13 @@
       <c r="D5" s="1">
         <v>4800</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="L5" s="1">
         <v>1</v>
       </c>
@@ -2265,11 +2265,11 @@
       <c r="D6" s="1">
         <v>5700</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
       <c r="L6" s="1">
         <v>2</v>
       </c>
@@ -2296,11 +2296,11 @@
       <c r="D7" s="1">
         <v>3000</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
       <c r="L7" s="1">
         <v>5</v>
       </c>
@@ -2327,30 +2327,30 @@
       <c r="D8" s="1">
         <v>5800</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="3">
         <v>3200</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
@@ -2359,13 +2359,13 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
       <c r="L15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2380,11 +2380,11 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
       <c r="L16" s="1">
         <v>1</v>
       </c>
@@ -2399,11 +2399,11 @@
       </c>
     </row>
     <row r="17" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
       <c r="L17" s="1">
         <v>2</v>
       </c>
@@ -2418,11 +2418,11 @@
       </c>
     </row>
     <row r="18" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
       <c r="L18" s="1">
         <v>4</v>
       </c>
@@ -2437,11 +2437,11 @@
       </c>
     </row>
     <row r="19" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
       <c r="L19" s="1">
         <v>5</v>
       </c>
@@ -2470,16 +2470,16 @@
       </c>
     </row>
     <row r="21" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="L21" s="12">
+      <c r="L21" s="3">
         <v>7</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="N21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="3">
         <v>3200</v>
       </c>
     </row>
@@ -2490,13 +2490,13 @@
     </row>
     <row r="26" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
       <c r="L27" s="2" t="s">
         <v>0</v>
       </c>
@@ -2511,11 +2511,11 @@
       </c>
     </row>
     <row r="28" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
       <c r="L28" s="1">
         <v>3</v>
       </c>
@@ -2530,11 +2530,11 @@
       </c>
     </row>
     <row r="29" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2543,18 +2543,18 @@
       </c>
     </row>
     <row r="30" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
